--- a/Assets/GameMain/ExcelDataTables/Tofu.xlsx
+++ b/Assets/GameMain/ExcelDataTables/Tofu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>#</t>
   </si>
@@ -25,27 +25,27 @@
     <t>Id</t>
   </si>
   <si>
-    <t>TofuGradeOne</t>
-  </si>
-  <si>
-    <t>TofuGradeTwo</t>
-  </si>
-  <si>
-    <t>TofuGradeThree</t>
-  </si>
-  <si>
-    <t>InitPosition</t>
-  </si>
-  <si>
-    <t>InitRotation</t>
+    <t>PuTong</t>
+  </si>
+  <si>
+    <t>DaoJu</t>
+  </si>
+  <si>
+    <t>TeShuMin</t>
+  </si>
+  <si>
+    <t>TeShuMax</t>
+  </si>
+  <si>
+    <t>JinSheTeShuMin</t>
+  </si>
+  <si>
+    <t>JinSheTeShuMax</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>豆腐配置Id</t>
   </si>
   <si>
@@ -55,16 +55,19 @@
     <t>普通豆腐概率</t>
   </si>
   <si>
-    <t>特殊豆腐概率</t>
-  </si>
-  <si>
-    <t>金色特殊豆腐概率</t>
-  </si>
-  <si>
-    <t>初始位置</t>
-  </si>
-  <si>
-    <t>初始旋转</t>
+    <t>道具豆腐概率</t>
+  </si>
+  <si>
+    <t>特殊豆腐触发最小值</t>
+  </si>
+  <si>
+    <t>特殊豆腐触发临界值</t>
+  </si>
+  <si>
+    <t>金色特殊豆腐触发最小值</t>
+  </si>
+  <si>
+    <t>金色特殊豆腐触发临界值</t>
   </si>
 </sst>
 </file>
@@ -72,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -86,6 +89,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -105,6 +123,60 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -116,115 +188,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,25 +248,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,151 +410,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,7 +440,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,23 +448,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,20 +486,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,6 +524,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -538,10 +541,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -550,133 +553,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1003,13 +1006,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1019,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1041,22 +1044,25 @@
       <c r="H2" t="s">
         <v>7</v>
       </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -1064,8 +1070,11 @@
       <c r="H3" t="s">
         <v>9</v>
       </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1090,53 +1099,31 @@
       <c r="H4" t="s">
         <v>16</v>
       </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:9">
       <c r="B5">
         <v>1001</v>
       </c>
       <c r="D5">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6">
-        <v>1002</v>
-      </c>
-      <c r="D6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7">
-        <v>1003</v>
-      </c>
-      <c r="D7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8">
-        <v>1004</v>
-      </c>
-      <c r="D8">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9">
-        <v>1005</v>
-      </c>
-      <c r="D9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10">
-        <v>1006</v>
-      </c>
-      <c r="D10">
-        <v>80</v>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/GameMain/ExcelDataTables/Tofu.xlsx
+++ b/Assets/GameMain/ExcelDataTables/Tofu.xlsx
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
